--- a/data/trans_orig/P14A04-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14A04-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{91005C57-56B3-467E-A6E4-EB80A74FD859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{88D3A100-52B5-4A67-A92D-D78186EAAF28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{99AEBFA5-E915-4BB4-947C-51DD5AAED810}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F3DFB070-9718-4AC1-9C05-FEDEB2BF72F3}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -75,7 +75,7 @@
     <t>88,69%</t>
   </si>
   <si>
-    <t>65,94%</t>
+    <t>65,78%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -84,16 +84,16 @@
     <t>94,56%</t>
   </si>
   <si>
-    <t>68,93%</t>
+    <t>75,98%</t>
   </si>
   <si>
     <t>92,01%</t>
   </si>
   <si>
-    <t>80,46%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
+    <t>79,92%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
   </si>
   <si>
     <t>No</t>
@@ -105,22 +105,22 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>34,06%</t>
+    <t>34,22%</t>
   </si>
   <si>
     <t>5,44%</t>
   </si>
   <si>
-    <t>31,07%</t>
+    <t>24,02%</t>
   </si>
   <si>
     <t>7,99%</t>
   </si>
   <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
   </si>
   <si>
     <t>100%</t>
@@ -132,280 +132,280 @@
     <t>89,1%</t>
   </si>
   <si>
+    <t>80,73%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>90,17%</t>
+  </si>
+  <si>
+    <t>82,18%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>84,12%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>86,23%</t>
+  </si>
+  <si>
+    <t>78,57%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>84,46%</t>
+  </si>
+  <si>
+    <t>77,77%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>85,24%</t>
+  </si>
+  <si>
+    <t>80,22%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>77,4%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>91,76%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>87,55%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>81,6%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>86,26%</t>
+  </si>
+  <si>
     <t>79,66%</t>
   </si>
   <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>82,75%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>84,47%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
+  </si>
+  <si>
+    <t>83,23%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
   </si>
   <si>
     <t>20,34%</t>
   </si>
   <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>86,23%</t>
-  </si>
-  <si>
-    <t>78,62%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>84,46%</t>
-  </si>
-  <si>
-    <t>77,52%</t>
-  </si>
-  <si>
-    <t>90,02%</t>
-  </si>
-  <si>
-    <t>85,24%</t>
-  </si>
-  <si>
-    <t>80,05%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>76,22%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>87,38%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>82,55%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>86,26%</t>
-  </si>
-  <si>
-    <t>80,43%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
-  </si>
-  <si>
-    <t>82,49%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
     <t>12,36%</t>
   </si>
   <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
   </si>
   <si>
     <t>88,29%</t>
   </si>
   <si>
-    <t>84,21%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
+    <t>84,34%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
   </si>
   <si>
     <t>88,89%</t>
   </si>
   <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
+    <t>85,56%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
   </si>
   <si>
     <t>88,62%</t>
   </si>
   <si>
-    <t>86,3%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
+    <t>86,35%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
   </si>
   <si>
     <t>11,71%</t>
   </si>
   <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
   </si>
   <si>
     <t>11,11%</t>
   </si>
   <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
   </si>
   <si>
     <t>11,38%</t>
   </si>
   <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -417,301 +417,301 @@
     <t>90,13%</t>
   </si>
   <si>
-    <t>64,67%</t>
+    <t>56,78%</t>
   </si>
   <si>
     <t>81,4%</t>
   </si>
   <si>
-    <t>44,7%</t>
+    <t>44,46%</t>
   </si>
   <si>
     <t>86,67%</t>
   </si>
   <si>
-    <t>67,73%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
+    <t>66,52%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
   </si>
   <si>
     <t>9,87%</t>
   </si>
   <si>
-    <t>35,33%</t>
+    <t>43,22%</t>
   </si>
   <si>
     <t>18,6%</t>
   </si>
   <si>
-    <t>55,3%</t>
+    <t>55,54%</t>
   </si>
   <si>
     <t>13,33%</t>
   </si>
   <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>33,48%</t>
   </si>
   <si>
     <t>89,17%</t>
   </si>
   <si>
-    <t>77,86%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
+    <t>79,56%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
   </si>
   <si>
     <t>86,87%</t>
   </si>
   <si>
-    <t>78,2%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
+    <t>78,04%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
   </si>
   <si>
     <t>87,85%</t>
   </si>
   <si>
-    <t>81,53%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
+    <t>82,05%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
   </si>
   <si>
     <t>10,83%</t>
   </si>
   <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
   </si>
   <si>
     <t>13,13%</t>
   </si>
   <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
   </si>
   <si>
     <t>12,15%</t>
   </si>
   <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
   </si>
   <si>
     <t>84,2%</t>
   </si>
   <si>
-    <t>76,56%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
+    <t>76,24%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
   </si>
   <si>
     <t>83,06%</t>
   </si>
   <si>
-    <t>76,05%</t>
-  </si>
-  <si>
-    <t>88,49%</t>
+    <t>76,27%</t>
+  </si>
+  <si>
+    <t>88,77%</t>
   </si>
   <si>
     <t>83,57%</t>
   </si>
   <si>
-    <t>78,49%</t>
-  </si>
-  <si>
-    <t>87,78%</t>
+    <t>78,51%</t>
+  </si>
+  <si>
+    <t>87,68%</t>
   </si>
   <si>
     <t>15,8%</t>
   </si>
   <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
   </si>
   <si>
     <t>16,94%</t>
   </si>
   <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
   </si>
   <si>
     <t>16,43%</t>
   </si>
   <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
   </si>
   <si>
     <t>93,31%</t>
   </si>
   <si>
-    <t>97,76%</t>
+    <t>86,98%</t>
   </si>
   <si>
     <t>79,42%</t>
   </si>
   <si>
-    <t>68,97%</t>
-  </si>
-  <si>
-    <t>86,81%</t>
+    <t>68,72%</t>
   </si>
   <si>
     <t>86,63%</t>
   </si>
   <si>
-    <t>80,73%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
+    <t>81,06%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
   </si>
   <si>
     <t>6,69%</t>
   </si>
   <si>
-    <t>2,24%</t>
+    <t>13,02%</t>
   </si>
   <si>
     <t>20,58%</t>
   </si>
   <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
+    <t>31,28%</t>
   </si>
   <si>
     <t>13,37%</t>
   </si>
   <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
   </si>
   <si>
     <t>76,44%</t>
   </si>
   <si>
-    <t>64,81%</t>
-  </si>
-  <si>
-    <t>85,76%</t>
+    <t>66,17%</t>
+  </si>
+  <si>
+    <t>85,98%</t>
   </si>
   <si>
     <t>86,83%</t>
   </si>
   <si>
-    <t>78,14%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
+    <t>79,19%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
   </si>
   <si>
     <t>82,57%</t>
   </si>
   <si>
-    <t>76,51%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
+    <t>75,67%</t>
+  </si>
+  <si>
+    <t>87,59%</t>
   </si>
   <si>
     <t>23,56%</t>
   </si>
   <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
   </si>
   <si>
     <t>13,17%</t>
   </si>
   <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
   </si>
   <si>
     <t>17,43%</t>
   </si>
   <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
   </si>
   <si>
     <t>85,78%</t>
   </si>
   <si>
-    <t>81,59%</t>
+    <t>81,73%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
   </si>
   <si>
     <t>84,09%</t>
   </si>
   <si>
-    <t>80,2%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
+    <t>80,23%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
   </si>
   <si>
     <t>84,86%</t>
   </si>
   <si>
-    <t>82,18%</t>
-  </si>
-  <si>
-    <t>87,46%</t>
+    <t>82,27%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
   </si>
   <si>
     <t>14,22%</t>
   </si>
   <si>
-    <t>18,41%</t>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
   </si>
   <si>
     <t>15,91%</t>
   </si>
   <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
   </si>
   <si>
     <t>15,14%</t>
   </si>
   <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
   </si>
 </sst>
 </file>
@@ -1123,7 +1123,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2007618A-280D-48A2-83C3-CB5558ACDD6C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A5C6D59-F9E3-4B5F-B59B-DD0A5EC696B2}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2186,7 +2186,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04D9895A-2E6F-4892-9A69-236FA450AF11}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C355DEB2-FAD6-4906-BF79-17C9769F4205}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2778,10 +2778,10 @@
         <v>175</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>176</v>
+        <v>18</v>
       </c>
       <c r="H13" s="7">
         <v>59</v>
@@ -2796,7 +2796,7 @@
         <v>178</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>179</v>
+        <v>93</v>
       </c>
       <c r="M13" s="7">
         <v>143</v>
@@ -2805,13 +2805,13 @@
         <v>158010</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2826,13 +2826,13 @@
         <v>6339</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="H14" s="7">
         <v>17</v>
@@ -2841,13 +2841,13 @@
         <v>18048</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="M14" s="7">
         <v>24</v>
@@ -2856,13 +2856,13 @@
         <v>24387</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2930,13 +2930,13 @@
         <v>66958</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="H16" s="7">
         <v>92</v>
@@ -2945,13 +2945,13 @@
         <v>109675</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="M16" s="7">
         <v>164</v>
@@ -2960,13 +2960,13 @@
         <v>176634</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2981,13 +2981,13 @@
         <v>20643</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="H17" s="7">
         <v>13</v>
@@ -2996,13 +2996,13 @@
         <v>16632</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="M17" s="7">
         <v>30</v>
@@ -3011,13 +3011,13 @@
         <v>37274</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3085,13 +3085,13 @@
         <v>333525</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="H19" s="7">
         <v>345</v>
@@ -3100,13 +3100,13 @@
         <v>394687</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="M19" s="7">
         <v>677</v>
@@ -3115,13 +3115,13 @@
         <v>728212</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3136,10 +3136,10 @@
         <v>55273</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>218</v>

--- a/data/trans_orig/P14A04-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14A04-Habitat-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{88D3A100-52B5-4A67-A92D-D78186EAAF28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{10E4BAD0-BDD0-4F92-B4FC-5DD13BA6D85C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F3DFB070-9718-4AC1-9C05-FEDEB2BF72F3}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{20EC67E9-06F6-4B32-9938-EFF46681D060}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="227">
   <si>
     <t>Población que recibe medicación o terapia por colesterol alto en 2012 (Tasa respuesta: 12,28%)</t>
   </si>
@@ -66,7 +66,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -75,7 +75,7 @@
     <t>88,69%</t>
   </si>
   <si>
-    <t>65,78%</t>
+    <t>67,67%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -84,16 +84,16 @@
     <t>94,56%</t>
   </si>
   <si>
-    <t>75,98%</t>
+    <t>77,85%</t>
   </si>
   <si>
     <t>92,01%</t>
   </si>
   <si>
-    <t>79,92%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
+    <t>78,91%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
   </si>
   <si>
     <t>No</t>
@@ -105,613 +105,619 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>34,22%</t>
+    <t>32,33%</t>
   </si>
   <si>
     <t>5,44%</t>
   </si>
   <si>
-    <t>24,02%</t>
+    <t>22,15%</t>
   </si>
   <si>
     <t>7,99%</t>
   </si>
   <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>89,1%</t>
   </si>
   <si>
-    <t>80,73%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
+    <t>80,41%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
   </si>
   <si>
     <t>90,17%</t>
   </si>
   <si>
-    <t>82,18%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
+    <t>81,42%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
   </si>
   <si>
     <t>89,66%</t>
   </si>
   <si>
-    <t>84,12%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
+    <t>84,29%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
   </si>
   <si>
     <t>10,9%</t>
   </si>
   <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
   </si>
   <si>
     <t>9,83%</t>
   </si>
   <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
   </si>
   <si>
     <t>10,34%</t>
   </si>
   <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>86,23%</t>
   </si>
   <si>
+    <t>78,54%</t>
+  </si>
+  <si>
+    <t>91,77%</t>
+  </si>
+  <si>
+    <t>84,46%</t>
+  </si>
+  <si>
+    <t>77,69%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>85,24%</t>
+  </si>
+  <si>
+    <t>80,49%</t>
+  </si>
+  <si>
+    <t>89,07%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>76,82%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>87,54%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>82,35%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>86,26%</t>
+  </si>
+  <si>
+    <t>79,69%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
+  </si>
+  <si>
+    <t>83,23%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
+  </si>
+  <si>
+    <t>84,43%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>85,45%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>88,62%</t>
+  </si>
+  <si>
+    <t>86,2%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que recibe medicación o terapia por colesterol alto en 2016 (Tasa respuesta: 12,06%)</t>
+  </si>
+  <si>
+    <t>90,13%</t>
+  </si>
+  <si>
+    <t>56,38%</t>
+  </si>
+  <si>
+    <t>81,4%</t>
+  </si>
+  <si>
+    <t>52,34%</t>
+  </si>
+  <si>
+    <t>86,67%</t>
+  </si>
+  <si>
+    <t>63,16%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>43,62%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>47,66%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>36,84%</t>
+  </si>
+  <si>
+    <t>89,17%</t>
+  </si>
+  <si>
+    <t>78,72%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>86,87%</t>
+  </si>
+  <si>
     <t>78,57%</t>
   </si>
   <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>84,46%</t>
-  </si>
-  <si>
-    <t>77,77%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>85,24%</t>
-  </si>
-  <si>
-    <t>80,22%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>87,85%</t>
+  </si>
+  <si>
+    <t>81,53%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
   </si>
   <si>
     <t>21,43%</t>
   </si>
   <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>77,4%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>91,76%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>87,55%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>81,6%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>86,26%</t>
-  </si>
-  <si>
-    <t>79,66%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
-  </si>
-  <si>
-    <t>83,23%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>84,34%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>85,56%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>88,62%</t>
-  </si>
-  <si>
-    <t>86,35%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que recibe medicación o terapia por colesterol alto en 2015 (Tasa respuesta: 12,06%)</t>
-  </si>
-  <si>
-    <t>90,13%</t>
-  </si>
-  <si>
-    <t>56,78%</t>
-  </si>
-  <si>
-    <t>81,4%</t>
-  </si>
-  <si>
-    <t>44,46%</t>
-  </si>
-  <si>
-    <t>86,67%</t>
-  </si>
-  <si>
-    <t>66,52%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>43,22%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>55,54%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>89,17%</t>
-  </si>
-  <si>
-    <t>79,56%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>86,87%</t>
-  </si>
-  <si>
-    <t>78,04%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>87,85%</t>
-  </si>
-  <si>
-    <t>82,05%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
     <t>12,15%</t>
   </si>
   <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
   </si>
   <si>
     <t>84,2%</t>
   </si>
   <si>
-    <t>76,24%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
   </si>
   <si>
     <t>83,06%</t>
   </si>
   <si>
-    <t>76,27%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
+    <t>75,95%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
   </si>
   <si>
     <t>83,57%</t>
   </si>
   <si>
-    <t>78,51%</t>
-  </si>
-  <si>
-    <t>87,68%</t>
+    <t>78,35%</t>
+  </si>
+  <si>
+    <t>87,69%</t>
   </si>
   <si>
     <t>15,8%</t>
   </si>
   <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
   </si>
   <si>
     <t>16,94%</t>
   </si>
   <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
   </si>
   <si>
     <t>16,43%</t>
   </si>
   <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
   </si>
   <si>
     <t>93,31%</t>
   </si>
   <si>
-    <t>86,98%</t>
+    <t>86,68%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
   </si>
   <si>
     <t>79,42%</t>
   </si>
   <si>
-    <t>68,72%</t>
+    <t>68,83%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
   </si>
   <si>
     <t>86,63%</t>
   </si>
   <si>
-    <t>81,06%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
+    <t>80,51%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
   </si>
   <si>
     <t>6,69%</t>
   </si>
   <si>
-    <t>13,02%</t>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
   </si>
   <si>
     <t>20,58%</t>
   </si>
   <si>
-    <t>31,28%</t>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>31,17%</t>
   </si>
   <si>
     <t>13,37%</t>
   </si>
   <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
   </si>
   <si>
     <t>76,44%</t>
   </si>
   <si>
-    <t>66,17%</t>
-  </si>
-  <si>
-    <t>85,98%</t>
+    <t>65,53%</t>
+  </si>
+  <si>
+    <t>84,98%</t>
   </si>
   <si>
     <t>86,83%</t>
   </si>
   <si>
-    <t>79,19%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
+    <t>79,06%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
   </si>
   <si>
     <t>82,57%</t>
   </si>
   <si>
-    <t>75,67%</t>
-  </si>
-  <si>
-    <t>87,59%</t>
+    <t>76,35%</t>
+  </si>
+  <si>
+    <t>88,01%</t>
   </si>
   <si>
     <t>23,56%</t>
   </si>
   <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
   </si>
   <si>
     <t>13,17%</t>
   </si>
   <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
   </si>
   <si>
     <t>17,43%</t>
   </si>
   <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
   </si>
   <si>
     <t>85,78%</t>
   </si>
   <si>
-    <t>81,73%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
+    <t>80,96%</t>
   </si>
   <si>
     <t>84,09%</t>
   </si>
   <si>
-    <t>80,23%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
+    <t>80,31%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
   </si>
   <si>
     <t>84,86%</t>
   </si>
   <si>
-    <t>82,27%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
+    <t>82,04%</t>
+  </si>
+  <si>
+    <t>87,36%</t>
   </si>
   <si>
     <t>14,22%</t>
   </si>
   <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
+    <t>19,04%</t>
   </si>
   <si>
     <t>15,91%</t>
   </si>
   <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
   </si>
   <si>
     <t>15,14%</t>
   </si>
   <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
   </si>
 </sst>
 </file>
@@ -1123,7 +1129,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A5C6D59-F9E3-4B5F-B59B-DD0A5EC696B2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0032E773-A10F-4366-8A33-52FF7A88F19A}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2186,7 +2192,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C355DEB2-FAD6-4906-BF79-17C9769F4205}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09257BD3-FF66-4FC5-BD29-99C741DCD2BB}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2781,7 +2787,7 @@
         <v>176</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>18</v>
+        <v>177</v>
       </c>
       <c r="H13" s="7">
         <v>59</v>
@@ -2790,13 +2796,13 @@
         <v>69652</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>93</v>
+        <v>180</v>
       </c>
       <c r="M13" s="7">
         <v>143</v>
@@ -2805,13 +2811,13 @@
         <v>158010</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2826,13 +2832,13 @@
         <v>6339</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>26</v>
+        <v>185</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="H14" s="7">
         <v>17</v>
@@ -2841,13 +2847,13 @@
         <v>18048</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>102</v>
+        <v>188</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="M14" s="7">
         <v>24</v>
@@ -2856,13 +2862,13 @@
         <v>24387</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2930,13 +2936,13 @@
         <v>66958</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="H16" s="7">
         <v>92</v>
@@ -2945,13 +2951,13 @@
         <v>109675</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="M16" s="7">
         <v>164</v>
@@ -2960,13 +2966,13 @@
         <v>176634</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2981,13 +2987,13 @@
         <v>20643</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="H17" s="7">
         <v>13</v>
@@ -2996,13 +3002,13 @@
         <v>16632</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="M17" s="7">
         <v>30</v>
@@ -3011,13 +3017,13 @@
         <v>37274</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3085,13 +3091,13 @@
         <v>333525</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>209</v>
+        <v>139</v>
       </c>
       <c r="H19" s="7">
         <v>345</v>
@@ -3100,13 +3106,13 @@
         <v>394687</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="M19" s="7">
         <v>677</v>
@@ -3115,13 +3121,13 @@
         <v>728212</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3136,13 +3142,13 @@
         <v>55273</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>217</v>
+        <v>148</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="H20" s="7">
         <v>66</v>
@@ -3151,13 +3157,13 @@
         <v>74651</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="M20" s="7">
         <v>115</v>
@@ -3166,13 +3172,13 @@
         <v>129924</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
